--- a/TF_CNN_Sequential_NLP_imdb_reviews/Results/df_metrics.xlsx
+++ b/TF_CNN_Sequential_NLP_imdb_reviews/Results/df_metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>filename</t>
   </si>
@@ -91,19 +91,115 @@
     <t>model2</t>
   </si>
   <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=16,input_length=120), 
+ GlobalAveragePooling1D,
+ Dense(6,relu), 
+ Dense(1,sigmoid)</t>
+  </si>
+  <si>
     <t>model3</t>
   </si>
   <si>
+    <t>Embedding(vocab_size=10000, 
+ embedding_dim=16), 
+ Bidirectional(LSTM(64,return_sequences=True)), 
+ Bidirectional(LSTM(32)), 
+ Dense(64,relu), 
+ Dense(1,sigmoid)</t>
+  </si>
+  <si>
     <t>model4</t>
   </si>
   <si>
+    <t>Embedding(vocab_size=10000, 
+ embedding_dim=16), 
+ Bidirectional(LSTM(32)), 
+ Dense(24,relu), 
+ Dense(1,sigmoid)</t>
+  </si>
+  <si>
     <t>model5</t>
   </si>
   <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=16,input_length=120), 
+ Bidirectional(LSTM(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
     <t>model6</t>
   </si>
   <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=16,input_length=120), 
+ Conv1D(128,5,activation=relu), 
+ GlobalAveragePooling1D, 
+ Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
     <t>model7</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=16,input_length=120), 
+ Bidirectional(GRU(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model8</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000, 
+ embedding_dim=32, 
+ input_length=120), 
+ Flatten, 
+ Dense(6,relu), 
+ Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model9</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000, 
+ embedding_dim=8, 
+ input_length=120), 
+ Flatten, 
+ Dense(6,relu), 
+ Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model10</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=8,input_length=120), 
+ Bidirectional(GRU(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model11</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=8,input_length=500), 
+ Bidirectional(GRU(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model12</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=20000,embedding_dim=8,input_length=500), 
+ Bidirectional(GRU(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model13</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000,embedding_dim=8,input_length=5000), 
+ Bidirectional(GRU(32)),Dense(6,relu),Dense(1,sigmoid)</t>
+  </si>
+  <si>
+    <t>model14</t>
+  </si>
+  <si>
+    <t>Embedding(vocab_size=10000, 
+ embedding_dim=100), 
+ Bidirectional(LSTM(32)), 
+ Dropout(0.2), 
+ Dense(24,relu), 
+ Dense(1,sigmoid)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,10 +641,10 @@
         <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7843476533889771</v>
+        <v>0.8103444576263428</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8289999961853027</v>
+        <v>0.8275600075721741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -562,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -592,10 +688,10 @@
         <v>21</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7952041625976562</v>
+        <v>0.4910720586776733</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8281599879264832</v>
+        <v>0.8275200128555298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -606,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -639,10 +735,10 @@
         <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8010590672492981</v>
+        <v>0.6452430486679077</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8301200270652771</v>
+        <v>0.8132799863815308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -653,10 +749,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -686,10 +782,10 @@
         <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7943443655967712</v>
+        <v>0.9111733436584473</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8288800120353699</v>
+        <v>0.806119978427887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -700,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -733,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>0.796941339969635</v>
+        <v>0.8406791687011719</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8287199735641479</v>
+        <v>0.8163999915122986</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -747,10 +843,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -780,10 +876,10 @@
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8016094565391541</v>
+        <v>0.8609001636505127</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8270000219345093</v>
+        <v>0.8077200055122375</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -794,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -827,10 +923,339 @@
         <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7824556827545166</v>
+        <v>0.9003946185112</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8284000158309937</v>
+        <v>0.8135600090026855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7308313250541687</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8339599967002869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.882170557975769</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8184400200843811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7758364081382751</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8114799857139587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>500</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5584661960601807</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8561999797821045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>500</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6428314447402954</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8327199816703796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6931466460227966</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" t="n">
+        <v>500</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7027295231819153</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8619599938392639</v>
       </c>
     </row>
   </sheetData>
